--- a/template/Execl模板.xlsx
+++ b/template/Execl模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Net.Core\datatablegenerator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F6F5CC-735C-4E6B-BDC5-FC6DF2A561AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01DB8FC-5397-4A39-8731-5DDC251224B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2567" yWindow="2567" windowWidth="19200" windowHeight="10073" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>总数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值暂时 只支持时间和字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +500,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -629,6 +633,9 @@
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/template/Execl模板.xlsx
+++ b/template/Execl模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Net.Core\datatablegenerator\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01DB8FC-5397-4A39-8731-5DDC251224B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07737EF-31D5-4DE0-A8AF-E99E2E2B3462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,26 @@
   </si>
   <si>
     <t>默认值暂时 只支持时间和字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIPS：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SqlServer 连接字符串：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server=xxxxxxx;uid=xx;pwd=xxxxxxx;trustServerCertificate=true;database=xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySql 连接字符串：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server=xxxxxxx;port=xxxx;uid=xxxx;pwd=xxxxx;database=xxxxxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.45"/>
@@ -637,6 +657,27 @@
         <v>28</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
